--- a/documents/00_Sitzungen/Milestone_2/Zeitaufwanderfassung/Zeiterfassung_xlsx/23_Zeiterfassung MS2_Histarantia_Trebomic.xlsx
+++ b/documents/00_Sitzungen/Milestone_2/Zeitaufwanderfassung/Zeiterfassung_xlsx/23_Zeiterfassung MS2_Histarantia_Trebomic.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\git\ps_17_gruppe23\documents\00_Sitzungen\Milestone_2\Zeitaufwanderfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c20e31d2855c556/ZHAW_Privat/2_Frühlingssemester2018/PSIT2/Meilenstein 2/Zeitaufwanderfassung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2FDF28-13C9-4807-A97D-73F4B8740433}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{15FE3668-E3E0-4419-B7B5-F9E932EDD200}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" xr2:uid="{41C5A5EF-7409-4D51-A49E-327120042783}"/>
   </bookViews>
@@ -25,11 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>Aufwand Arbeiten PSIT2</t>
   </si>
   <si>
+    <t>Meilenstein 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Michèle Trebo (Gruppe 23, Projekt Histarantia) </t>
   </si>
   <si>
@@ -195,36 +198,9 @@
     <t xml:space="preserve">4 Stunden 35 Minuten </t>
   </si>
   <si>
-    <t>19:30 - 20:10 Uhr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 Minuten </t>
-  </si>
-  <si>
-    <t>Klassendiagramm erstellt</t>
-  </si>
-  <si>
-    <t>20:20 - 20:50 Uhr</t>
-  </si>
-  <si>
-    <t>20:50 - 21:20 Uhr</t>
-  </si>
-  <si>
-    <t>Zeitaufwanderfassung erstellt</t>
-  </si>
-  <si>
-    <t>26 Stunden 25 Minuten</t>
-  </si>
-  <si>
-    <t>5 Stunden</t>
-  </si>
-  <si>
-    <t>20 Stunden 45 Minuten</t>
-  </si>
-  <si>
-    <t>Java-Klassen verbessert &amp; Suche.jsp erstellt</t>
-  </si>
-  <si>
+    <r>
+      <t>·</t>
+    </r>
     <r>
       <rPr>
         <sz val="7"/>
@@ -232,7 +208,30 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Java-Klassen verbessert &amp; Suche.jsp erstellt</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
     </r>
     <r>
       <rPr>
@@ -245,13 +244,89 @@
     </r>
   </si>
   <si>
-    <t>Meine erledigten Issues geschlossen auf Github</t>
-  </si>
-  <si>
-    <t>Klassendiagramm weiter bearbeitet &amp; auf Github geladen</t>
-  </si>
-  <si>
-    <t>Meilenstein 2</t>
+    <t>19:30 - 20:10 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 Minuten </t>
+  </si>
+  <si>
+    <t>Klassendiagramm erstellt</t>
+  </si>
+  <si>
+    <t>20:20 - 20:50 Uhr</t>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Klassendiagramm weiter bearbeitet &amp; auf Github geladen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>Meine erledigten Issues geschlossen auf Github</t>
+    </r>
+  </si>
+  <si>
+    <t>20:50 - 21:20 Uhr</t>
+  </si>
+  <si>
+    <t>Zeitaufwanderfassung erstellt</t>
+  </si>
+  <si>
+    <t>Dienstag, 03.04.2018</t>
+  </si>
+  <si>
+    <t>17:30 - 21:30 Uhr</t>
+  </si>
+  <si>
+    <t>4 Stunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebensmittelsuche.java mit LebensmittelsucheDao.java verbunden und LebensmittelsucheDao.java so geschrieben, dass diese die Daten aus der Datenbank holt. </t>
+  </si>
+  <si>
+    <t>30 Stunden 25 Minuten</t>
+  </si>
+  <si>
+    <t>5 Stunden</t>
+  </si>
+  <si>
+    <t>24 Stunden 45 Minuten</t>
   </si>
 </sst>
 </file>
@@ -441,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -491,8 +566,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -504,15 +582,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -829,10 +898,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9241310-9E78-4C32-87C8-27A1B8B2E450}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,183 +919,183 @@
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>69</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="13"/>
       <c r="B7" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13"/>
       <c r="B11" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="16"/>
       <c r="B17" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="42" thickBot="1" x14ac:dyDescent="0.35">
@@ -1034,134 +1103,138 @@
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="D18" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7"/>
       <c r="B19" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
       <c r="B21" s="8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="D22" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="B23" s="23" t="s">
         <v>55</v>
       </c>
+      <c r="C23" s="23" t="s">
+        <v>56</v>
+      </c>
       <c r="D23" s="19" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="21"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="26" t="s">
-        <v>66</v>
+      <c r="A24" s="22"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="21"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24" t="s">
-        <v>67</v>
+      <c r="A26" s="21"/>
+      <c r="B26" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
       <c r="B28" s="9" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D29" s="12"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
@@ -1169,7 +1242,7 @@
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="D30" s="12"/>
     </row>
@@ -1179,7 +1252,7 @@
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="D31" s="12"/>
     </row>
@@ -1189,9 +1262,19 @@
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
